--- a/_resource/excel/table/K-框架-随机权重-(框架定义,策划填写).xlsx
+++ b/_resource/excel/table/K-框架-随机权重-(框架定义,策划填写).xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26340" windowHeight="12615" tabRatio="710"/>
+    <workbookView xWindow="2070" yWindow="0" windowWidth="26340" windowHeight="12615" tabRatio="710"/>
   </bookViews>
   <sheets>
-    <sheet name="weightpool" sheetId="6" r:id="rId1"/>
+    <sheet name="weight" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>权重ID</t>
   </si>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>xml=weightpool</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -119,12 +115,32 @@
   <si>
     <t>权重池id</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32-&gt;KFWeight</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32-&gt;KFWeight</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KFWeight=2,KFWeightList&lt;{}&gt;,权重列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpp=Weight</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml=weight</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -664,24 +680,30 @@
   <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -706,10 +728,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
@@ -724,10 +746,10 @@
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -738,16 +760,16 @@
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
